--- a/Datos/Tablaerrorescasos.xlsx
+++ b/Datos/Tablaerrorescasos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIEGO\Desktop\covid19mcaf.github.io\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D48932-B1D7-4353-80B7-3428CAA696DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D489906-2177-4019-B2DE-C0BFE2C3628C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Fecha</t>
   </si>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>0,43%</t>
+  </si>
+  <si>
+    <t>Error predicción 13 abril</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>12/04/2020</t>
+  </si>
+  <si>
+    <t>1,4%</t>
   </si>
 </sst>
 </file>
@@ -103,9 +115,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -394,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,7 +418,7 @@
     <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,32 +431,49 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
         <v>166019</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>169496</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="4"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="5"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
